--- a/b帮助.xlsx
+++ b/b帮助.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9372"/>
+    <workbookView windowWidth="22368" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="游戏帮助_HelpTip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -58,22 +58,42 @@
     <t>1</t>
   </si>
   <si>
-    <t>标题1</t>
-  </si>
-  <si>
-    <t>1.挑战世界BOSS需消耗&lt;font color='0x27cb6c'&gt;1&lt;/font&gt;张&lt;font color='0x27cb6c'&gt;世界BOSS挑战券&lt;/font&gt;，或&lt;font color='0x27cb6c'&gt;1&lt;/font&gt;次挑战次数\n2.挑战次数每&lt;font color='0x27cb6c'&gt;1&lt;/font&gt;小时恢复一次\n3.对BOSS造成伤害&lt;font color='0x27cb6c'&gt;最高&lt;/font&gt;的玩家获得该BOSS的归属奖励\n4.当BOSS血量低于&lt;font color='0x27cb6c'&gt;75%&lt;/font&gt;时，BOSS将倒计时&lt;font color='0x27cb6c'&gt;120&lt;/font&gt;秒逃跑，BOSS逃跑后依然对伤害最高者发放归属奖励</t>
-  </si>
-  <si>
-    <t>这个是兑换系统的帮助说明</t>
+    <t>玩法说明</t>
+  </si>
+  <si>
+    <t>1.购买
+  每条海洋动物寿命30天，级别从1级到15级，1级动物每条价格为565KH，每增加1级价格提高一倍。
+2.产出
+  动物每天产出KH，1级到15级动物对应的月化收益为10%、11%、13%、15%、18%、21%、24%、28%、32%、36%、40%、45%、50%、55%和60%，本金收益均为KH。
+3.领取
+  产出的KH随时可以领取，连续24小时未领取则停止产出，停止期间不计入动物寿命。
+4.激活密钥
+  实名账户需进行一个激活密钥激活账户，激活密钥可向邀请您进行游戏的好友进行索要。
+5.赠送
+  通过实名认证即送一条1级动物，价值565KH，30天产出565KH+56.5CKH，月化收益10%。
+6.升级
+  两条同等级动物可合成高1级动物，两只旧动物已产KH数量，合成后将自动计入新动物产出。
+7.交易
+  每次交易均向卖家收取USDT作为手续费进入分红池，直推0/1/2/3名有效用户，对应享受的手续费率为50%/35%/30%/25%。
+8.兑换
+  每次交易均向卖家收取USDT作为手续费进入分红池，直推0/1/2/3名有效用户，对应享受的手续费率为50%/35%/30%/25%。
+9.分红
+  交易手续费的80%自动注入分红池，每天分红池中10%的USDT用于分红，注入KAD可以享受每天分红，注入1周/1月/2月/3月/6月/12月，对应享受的分红权重为0.1/1/2/3/6/12，注入最少1个KAD起，注入到期后会自动释放。
+10.推广
+  有效用户为至少获得过1条动物的用户
+直推规模达到0/1/2/3/4/5名有效用户，对应享受直推用户每次领币数量0%/1%/2%/3%/4%/5%的提成。
+团队奖励是算上我伞下所有人员团队规模达到（人）10/100/1000/1W/10W（人）、直推人数达到1/10/100/1000/1W可拿伞下非直用户收益的1/2/3/4/5。设有级差。
+11.通行证
+  KAD总量恒定1亿枚，是勇士系列整个游戏生态的通证，注入KAD可以享受勇士旗下所有游戏的每日分红，KAD和游戏通证的初始兑换比例为1:1，每兑换出100万KAD，兑换1个KAD所需的游戏通证数量自动增加1个，KAD将择机开放充提并上线交易所开启自由交易。</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>标题2</t>
-  </si>
-  <si>
-    <t>1.第一个挑战BOSS的玩家获得该BOSS的归属权 \n2.后续玩家将挑战该BOSS的归属玩家，挑战成功后可夺取其归属权\n3.或者归属权的玩家重复挑战BOSS将不消耗挑战次数\n4.BOSS被挑战后即倒计时 &lt;font color='0x27cb6c'&gt;120&lt;/font&gt;秒逃跑\n5.BOSS被击杀或逃跑即发放归属奖励\n6.每个玩家同时只能获得一个BOSS的归属\n7.可花费元宝获得鼓舞效果，鼓舞效果在获得一次BOSS归属时移除</t>
+    <t>实名认证说明</t>
+  </si>
+  <si>
+    <t>通过实名认证即送一条价值565KH，实名前需使用激活密钥激活。</t>
   </si>
   <si>
     <t>这个是加个系统的帮助说明</t>
@@ -82,12 +102,12 @@
     <t>3</t>
   </si>
   <si>
-    <t>标题3</t>
-  </si>
-  <si>
-    <t>1.可选择不同阵法，对当前阵容增加不同的属性加成；
-2.阵法可通过强化，来对前排神将和后排神将分别提升更多的加成；
-3.提升全体阵法阶数，可提升阵法技能等级</t>
+    <t>注入说明</t>
+  </si>
+  <si>
+    <t>1、注入KAD可以享受每天分红。
+2、注入1周/1月/2月/3月/6月/12月，对应享受的分红权重为0.1/1/2/3/6/12。
+3、注入最少1个KAD起，注入到期会自动释放。</t>
   </si>
   <si>
     <t>分红系统帮助说明</t>
@@ -96,95 +116,64 @@
     <t>4</t>
   </si>
   <si>
-    <t>标题4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.突破1重，获得主角攻击+1000
-2.突破2重，获得&lt;font color='0xdd1900'&gt;VIP1&lt;/font&gt;
-3.突破3重，获得全体生命+10000
-4.突破4重，获得&lt;font color='0xdd1900'&gt;VIP3&lt;/font&gt;
-5.突破5重，获得全体攻击+2000
-6.突破6重，获得&lt;font color='0xdd1900'&gt;VIP5&lt;/font&gt;
-7.突破7重，提升主角至：&lt;font color='0x7f1981'&gt;紫品&lt;/font&gt;
-8.突破8重，获得主角攻击+3000
-9.突破9重，获得全体攻击+3000
-10.突破10重，获得全体生命+50000
-11.突破11重，获得全体防御+4000
-12.突破12重，提升主角至：&lt;font color='0xbb870c'&gt;橙品&lt;/font&gt;
-13.突破13重，获得主角攻击+5000
-14.突破14重，获得全体攻击+3000
-15.突破15重，获得&lt;font color='0xdd1900'&gt;VIP6&lt;/font&gt;
-16.突破16重，获得全体防御+5000
-17.突破17重，获得全体攻击+5000
-18.突破18重，获得&lt;font color='0xdd1900'&gt;VIP7&lt;/font&gt;
-19.突破19重，获得全体攻击+9000
-20.突破20重，提升主角至：&lt;font color='0xdd1900'&gt;红品&lt;/font&gt;
-</t>
+    <t>兑换说明</t>
+  </si>
+  <si>
+    <t>1、KAD总量恒定1亿枚，整个游戏生态的通用通证。
+2、KAD和KH的初始兑换比例为1:1，每兑换出100万KAD，兑换1个KAD所需的KH数量自动增加1个。
+3、KAD既能享受海洋星球的每日分红，也能享受勇士未来旗下所有游戏的每日分红。
+4、KAD持有者可以无偿获得勇士旗下所有游戏通证的创世空投。
+5、KAD将在勇士第3款游戏上线前开放充提，并择日上线交易所开启自由交易。</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>标题5</t>
-  </si>
-  <si>
-    <t>1.升级经验重生时返还&lt;font color='0xdd1900'&gt;100%&lt;/font&gt;
-2.突破材料重生时返还&lt;font color='0xdd1900'&gt;100%&lt;/font&gt;
-3.觉醒材料重生时返还&lt;font color='0xdd1900'&gt;100%&lt;/font&gt;
-4.飞升材料重生时返还&lt;font color='0xdd1900'&gt;100%&lt;/font&gt;
-5.升星材料重生时返还&lt;font color='0xdd1900'&gt;100%&lt;/font&gt;</t>
+    <t>分红说明</t>
+  </si>
+  <si>
+    <t>每天分红池中10%的USDT用于分红，注入KAD可以享受每天分红，每天根据个人注入占比进行分红</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>标题6</t>
-  </si>
-  <si>
-    <t>1.跨服BOSS分为四个场景，分别为100级到400级开启
-2.每个场景有数个BOSS和数个小怪，BOSS需要和其他玩家竞争，伤害高者获得归属；小怪独属于搜寻到的玩家个人
-3.玩家可消耗搜寻次数搜寻怪物，当BOSS存活时，有较高几率搜寻到BOSS。搜寻次数一定时间自动恢复1次
-4.BOSS被挑战后即倒计时 &lt;font color='0x27cb6c'&gt;300&lt;/font&gt;秒逃跑
-5.BOSS被击杀或逃跑即通过邮件向归属玩家发放归属奖励
-6.每个玩家同时只能获得一个BOSS的归属，每次获得归属奖励会消耗1次归属次数，归属次数每日重置，vip增加每日归属次数上限
-7.BOSS复活时间区间
-青云寨：5~10分钟
-猛虎穴：5~20分钟
-深龙潭：5~30分钟
-百花谷：10~30分钟</t>
+    <t>推广说明</t>
+  </si>
+  <si>
+    <t>实名前需要使用激活秘钥进行激活。
+有效用户为至少获得过1条动物的用户
+直推规模达到0/1/2/3/4/5名有效用户，对应享受直推用户每次领币数量0%/1%/2%/3%/4%/5%的提成。
+团队奖励是算上我伞下所有人员团队规模达到（人）10/100/1000/1W/10W（人）、直推人数达到1/10/100/1000/1W可拿伞下非直用户收益的1/2/3/4/5。设有级差。</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>标题7</t>
-  </si>
-  <si>
-    <t>游戏帮助说明</t>
+    <t>提现说明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  提币地址必须为0x开头的ERC20地址，否则将无法到账.提现门槛为30USDT，每次提现收取5USDT手续费，提现后12次网络确认后到账</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>标题8</t>
+    <t>充值说明</t>
+  </si>
+  <si>
+    <t>1、请勿向上述地址充值非ERC20-USDT资产，否者资产将不可找回。
+2、您的充值地址可能有所改变，请以本页面最新地址为主，如有改变我们将尽快通知到您。
+3、请务必确认电脑及浏览器安全，以防信息被篡改。</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>标题9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>标题10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>标题11</t>
+    <t>激活码</t>
+  </si>
+  <si>
+    <t>实名账户需进行一个激活密钥激活账户，激活密钥可向邀请您进行游戏的好友进行索要。</t>
   </si>
 </sst>
 </file>
@@ -192,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -238,10 +227,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,7 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,25 +288,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,48 +328,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,22 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -376,7 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,25 +398,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,157 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,17 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +612,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,21 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -677,17 +666,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +697,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,137 +709,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,9 +868,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1299,14 +1291,14 @@
   <sheetPr/>
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="91.2037037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="120.666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="3" customWidth="1"/>
     <col min="5" max="7" width="9" style="3"/>
     <col min="8" max="10" width="9.37962962962963" style="3"/>
@@ -1367,7 +1359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="403.2" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,91 +1369,88 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:4">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" ht="72" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" ht="302.4" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" ht="72" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10" ht="72" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" ht="201.6" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" ht="43.2" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1472,593 +1461,577 @@
         <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="11"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="13"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="11"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="14"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="15"/>
+      <c r="D42" s="16"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="11"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="11"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="11"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="58" customFormat="1" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="15"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="16"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="11"/>
-      <c r="D68" s="16"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="17"/>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="16"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="16"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="16"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="11"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="19"/>
+      <c r="C82" s="20"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="11"/>
+      <c r="C83" s="12"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="11"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="11"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="21"/>
+      <c r="C92" s="22"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="22"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="23"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="20"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="11"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="11"/>
+      <c r="C101" s="12"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="11"/>
-      <c r="D103" s="16"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="17"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="11"/>
-      <c r="D107" s="16"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="17"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="11"/>
-      <c r="D111" s="16"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="17"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="20"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="16"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="17"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="20"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="16"/>
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="17"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="20"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="16"/>
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="17"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="16"/>
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="17"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="20"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="16"/>
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="17"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="11"/>
+      <c r="C117" s="12"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="11"/>
-      <c r="D120" s="16"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="17"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="11"/>
-      <c r="D121" s="16"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="17"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="11"/>
-      <c r="D122" s="16"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="17"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="11"/>
-      <c r="D123" s="16"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="17"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="11"/>
-      <c r="D124" s="16"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="17"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="11"/>
-      <c r="D125" s="16"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="17"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="11"/>
-      <c r="D126" s="16"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="17"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="11"/>
+      <c r="C129" s="12"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="20"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="16"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="20"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="16"/>
+      <c r="A131" s="21"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="17"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="11"/>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="11"/>
+      <c r="C133" s="12"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="11"/>
+      <c r="C135" s="12"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="16"/>
+      <c r="A136" s="21"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="17"/>
     </row>
     <row r="137" ht="15" spans="3:3">
-      <c r="C137" s="24"/>
+      <c r="C137" s="25"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="11"/>
+      <c r="C142" s="12"/>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="16"/>
+      <c r="D143" s="17"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="20"/>
-      <c r="B144" s="20"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="16"/>
+      <c r="A144" s="21"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="17"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="20"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="16"/>
+      <c r="A145" s="21"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="17"/>
     </row>
     <row r="146" spans="3:9">
-      <c r="C146" s="11"/>
-      <c r="I146" s="29"/>
+      <c r="C146" s="12"/>
+      <c r="I146" s="30"/>
     </row>
     <row r="147" spans="3:9">
-      <c r="C147" s="11"/>
-      <c r="D147" s="16"/>
-      <c r="I147" s="29"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="17"/>
+      <c r="I147" s="30"/>
     </row>
     <row r="148" spans="3:9">
-      <c r="C148" s="11"/>
-      <c r="D148" s="16"/>
-      <c r="I148" s="29"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="17"/>
+      <c r="I148" s="30"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
-      <c r="I149" s="29"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="28"/>
+      <c r="I149" s="30"/>
     </row>
     <row r="150" spans="3:9">
-      <c r="C150" s="11"/>
-      <c r="D150" s="16"/>
-      <c r="I150" s="29"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="17"/>
+      <c r="I150" s="30"/>
     </row>
     <row r="151" spans="3:9">
-      <c r="C151" s="11"/>
-      <c r="D151" s="16"/>
-      <c r="I151" s="29"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="17"/>
+      <c r="I151" s="30"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="25"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="16"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="29"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="25"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="16"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="25"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="16"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="17"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="25"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="16"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="17"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="25"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="16"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="17"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="20"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="16"/>
+      <c r="A157" s="21"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="20"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="16"/>
+      <c r="A158" s="21"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="17"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="20"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="16"/>
+      <c r="A159" s="21"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="17"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="16"/>
+      <c r="A160" s="21"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="17"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="20"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="16"/>
+      <c r="A161" s="21"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="17"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="20"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="16"/>
+      <c r="A162" s="21"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="17"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="20"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="16"/>
+      <c r="A163" s="21"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="17"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="20"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="16"/>
+      <c r="A164" s="21"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="17"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="20"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="16"/>
+      <c r="A165" s="21"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="17"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="20"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="16"/>
+      <c r="A166" s="21"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="17"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="20"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="16"/>
+      <c r="A167" s="21"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="17"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="20"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="16"/>
+      <c r="A168" s="21"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="17"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="20"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="16"/>
+      <c r="A169" s="21"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="17"/>
     </row>
     <row r="174" spans="3:4">
-      <c r="C174" s="11"/>
-      <c r="D174" s="16"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="17"/>
     </row>
     <row r="175" spans="4:4">
-      <c r="D175" s="16"/>
+      <c r="D175" s="17"/>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="16"/>
+      <c r="D176" s="17"/>
     </row>
     <row r="177" spans="3:4">
-      <c r="C177" s="11"/>
-      <c r="D177" s="16"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="17"/>
     </row>
     <row r="178" spans="4:4">
-      <c r="D178" s="16"/>
+      <c r="D178" s="17"/>
     </row>
     <row r="179" spans="3:4">
-      <c r="C179" s="11"/>
-      <c r="D179" s="16"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="17"/>
     </row>
     <row r="180" spans="3:4">
-      <c r="C180" s="11"/>
-      <c r="D180" s="16"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="17"/>
     </row>
     <row r="181" spans="3:4">
-      <c r="C181" s="11"/>
-      <c r="D181" s="16"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="17"/>
     </row>
     <row r="182" spans="3:4">
-      <c r="C182" s="11"/>
-      <c r="D182" s="16"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="17"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="20"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="16"/>
+      <c r="A184" s="21"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="17"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="20"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="16"/>
+      <c r="A185" s="21"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="17"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="20"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="16"/>
+      <c r="A186" s="21"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="17"/>
     </row>
     <row r="187" spans="3:4">
-      <c r="C187" s="11"/>
-      <c r="D187" s="16"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="17"/>
     </row>
     <row r="189" spans="3:4">
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="28"/>
     </row>
     <row r="190" spans="3:4">
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="28"/>
     </row>
     <row r="191" spans="3:4">
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="28"/>
     </row>
     <row r="192" spans="3:4">
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="28"/>
     </row>
     <row r="193" spans="3:4">
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="28"/>
     </row>
     <row r="194" spans="3:4">
-      <c r="C194" s="11"/>
-      <c r="D194" s="16"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="17"/>
     </row>
     <row r="195" spans="3:4">
-      <c r="C195" s="11"/>
-      <c r="D195" s="16"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="17"/>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="13"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204" spans="4:8">
-      <c r="D204" s="13"/>
-      <c r="H204" s="30"/>
+      <c r="D204" s="14"/>
+      <c r="H204" s="31"/>
     </row>
     <row r="205" spans="4:8">
-      <c r="D205" s="13"/>
-      <c r="H205" s="30"/>
+      <c r="D205" s="14"/>
+      <c r="H205" s="31"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="20"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="16"/>
-      <c r="H206" s="30"/>
+      <c r="A206" s="21"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="17"/>
+      <c r="H206" s="31"/>
     </row>
     <row r="207" spans="8:8">
-      <c r="H207" s="30"/>
+      <c r="H207" s="31"/>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="16"/>
+      <c r="D209" s="17"/>
     </row>
     <row r="210" spans="3:4">
-      <c r="C210" s="11"/>
-      <c r="D210" s="16"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="17"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="20"/>
-      <c r="B214" s="20"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="16"/>
+      <c r="A214" s="21"/>
+      <c r="B214" s="21"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="17"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="20"/>
-      <c r="B215" s="20"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="16"/>
+      <c r="A215" s="21"/>
+      <c r="B215" s="21"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="17"/>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="20"/>
-      <c r="B216" s="20"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="20"/>
-      <c r="B217" s="20"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="16"/>
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="17"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="20"/>
-      <c r="B218" s="20"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="16"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="17"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="11"/>
+      <c r="C224" s="12"/>
     </row>
     <row r="225" spans="3:4">
-      <c r="C225" s="11"/>
-      <c r="D225" s="16"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="17"/>
     </row>
     <row r="226" spans="3:4">
-      <c r="C226" s="11"/>
-      <c r="D226" s="16"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="17"/>
     </row>
     <row r="227" spans="3:4">
-      <c r="C227" s="11"/>
-      <c r="D227" s="16"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="17"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="20"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="16"/>
+      <c r="A228" s="21"/>
+      <c r="B228" s="21"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="17"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="20"/>
-      <c r="B234" s="20"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="16"/>
+      <c r="A234" s="21"/>
+      <c r="B234" s="21"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="17"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="20"/>
-      <c r="B235" s="20"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="16"/>
+      <c r="A235" s="21"/>
+      <c r="B235" s="21"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C93">

--- a/b帮助.xlsx
+++ b/b帮助.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="游戏帮助_HelpTip" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,96 @@
   <si>
     <t>实名账户需进行一个激活密钥激活账户，激活密钥可向邀请您进行游戏的好友进行索要。</t>
   </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>一．玩法模式
+深海部落每轮投资300USDT，可获得330USDT。5天一轮静态玩家净赚30USDT。动态玩家可以一轮秒出局，一轮需要5个加速积分，200个金币。
+1.注册实名
+用户注册后使用激活码进行账户激活、实名认证后自动获得一个领养名额。
+2.领养海豚
+花费200 USDT，即可排队从深海部落领养一只孕海豚，领取成功后等待24小时即可生产出2只小海豚。
+3.喂养成长
+花费50USDT/一只进行孵化，喂养24小时后即可待受孕。
+4.海豚受孕
+花费100金币/一只，即可将大海豚送往受孕中，等待24小时完成受孕。
+5.挂卖海豚
+海豚受孕完成后，会自动挂售，挂售排队48小时后自动被他人领养，领养后平台收取17.5%的领养手续费，两条共计获得330USDT收益。
+6.签到金币
+普通用户：普通用户未持有海豚用户，每小时可累计1金币，每8小时可进行一次领取。
+领养用户：持有海豚用户每小时可累计获得2金币，每8小时可进行一次领取。
+二．推广模式
+用户每领养一只动物，团队/直推活跃度加1。
+1.直推收益
+直推下级每增加一个活跃度用户将自动获得100金币，2个加速积分。
+2.小区收益
+小区活跃度每增加一个，自动获得一个加速积分、一个领养名额。
+三．道具体系
+1.金币：消耗金币可受孕海豚，也可以使用100金币（进行置换一个领养名额。
+2.加速积分：加速积分可进行等待时间加速，一个加速积分可缩短24小时。
+3.领养名额：领养名额作用为领养海豚。没有领养名额时不能进行领养海豚。</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>领养海豚</t>
+  </si>
+  <si>
+    <t>花费200 养龙赚钱
+每轮投入300∪SDT,获得330USDT,净赚30USDT.
+用户注册后自动获得1个领养名额
+每花费100个金币可获得1个领养名额
+领养花费200 USDT,即可从龙岛领养一条孕龙 24小时后就会产两个龙蛋
+孵化花费50 USDT开始孵化 24小时后即可把龙蛋孵化成金龙
+受孕花费100金币,即可把金龙寄养到龙岛 24小时后即可完成受孕
+金龙怀孕后会自动岀现在领养区,成功被领养后收取 17.5%的手续费,两条孕龙合计获得330 USDT
+免费挖矿
+普通用户签到后每小时可挖1个金币
+已领孕龙签到后每小时可挖2个金币
+每次签到都会持续产币24小时，但8小时后就能进行下次签到。
+推广收益
+用户每领养1条孕龙,团队活跃度增加1
+1直推活跃度每增加1,自动获得100金币和2个加速积分
+2小区活跃度每增加1,自动获得1个领养名额和1个加速积分
+加速积分可以用于缩减产蛋、孵化和怀孕的时间,每个加速积分可以缩减24小时</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>繁衍</t>
+  </si>
+  <si>
+    <t>养龙赚钱
+每轮投入300∪SDT,获得330USDT,净赚30USDT.
+用户注册后自动获得1个领养名额
+每花费100个金币可获得1个领养名额
+领养花费200 USDT,即可从龙岛领养一条孕龙 24小时后就会产两个龙蛋
+孵化花费50 USDT开始孵化 24小时后即可把龙蛋孵化成金龙
+受孕花费100金币,即可把金龙寄养到龙岛 24小时后即可完成受孕
+金龙怀孕后会自动岀现在领养区,成功被领养后收取 17.5%的手续费,两条孕龙合计获得330 USDT
+免费挖矿
+普通用户签到后每小时可挖1个金币
+已领孕龙签到后每小时可挖2个金币
+每次签到都会持续产币24小时，但8小时后就能进行下次签到。
+推广收益
+用户每领养1条孕龙,团队活跃度增加1
+1直推活跃度每增加1,自动获得100金币和2个加速积分
+2小区活跃度每增加1,自动获得1个领养名额和1个加速积分
+加速积分可以用于缩减产蛋、孵化和怀孕的时间,每个加速积分可以缩减24小时</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>动态收益
+用户每领养1条海豚,团队活跃度增加1。
+1，直推活跃度每增加1,自动获得100金币和2个加速积分。
+2，小区活跃度每增加1,自动获得1个领养名额和1个加速积分
+加速积分可以用于缩短孵化和怀孕的时间,每个加速积分可以缩减24小时。</t>
+  </si>
 </sst>
 </file>
 
@@ -227,6 +317,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -342,13 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -398,18 +488,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,36 +566,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,24 +650,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -524,61 +662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,10 +787,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,137 +799,137 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +965,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1291,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1464,574 +1557,612 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="3"/>
+    <row r="14" ht="403.2" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="259.2" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" ht="259.2" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="72" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="12"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="41" spans="4:4">
-      <c r="D41" s="15"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="16"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="12"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="12"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="12"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="58" customFormat="1" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="12"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="4:4">
-      <c r="D59" s="16"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" s="17"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="63" spans="3:4">
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="12"/>
-      <c r="D68" s="17"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="71" spans="4:4">
-      <c r="D71" s="17"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" s="17"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="4:4">
-      <c r="D73" s="17"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="12"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="20"/>
+      <c r="C82" s="21"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="12"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="12"/>
-      <c r="D87" s="17"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="12"/>
-      <c r="D89" s="17"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="17"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="22"/>
+      <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="23"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="24"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="12"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="13"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="12"/>
+      <c r="C101" s="13"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="12"/>
-      <c r="D103" s="17"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="12"/>
-      <c r="D107" s="17"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="12"/>
-      <c r="D111" s="17"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="17"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="17"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="17"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="17"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="17"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="12"/>
+      <c r="C117" s="13"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="12"/>
-      <c r="D120" s="17"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="18"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="12"/>
-      <c r="D121" s="17"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="18"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="12"/>
-      <c r="D122" s="17"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="18"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="12"/>
-      <c r="D123" s="17"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="18"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="12"/>
-      <c r="D124" s="17"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="18"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="12"/>
-      <c r="D125" s="17"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="18"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="12"/>
-      <c r="D126" s="17"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="18"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="12"/>
+      <c r="C129" s="13"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="17"/>
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="17"/>
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="18"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="12"/>
+      <c r="C132" s="13"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="12"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="12"/>
+      <c r="C135" s="13"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="21"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="17"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" ht="15" spans="3:3">
-      <c r="C137" s="25"/>
+      <c r="C137" s="26"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="12"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" spans="4:4">
-      <c r="D143" s="17"/>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="17"/>
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="18"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="17"/>
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="18"/>
     </row>
     <row r="146" spans="3:9">
-      <c r="C146" s="12"/>
-      <c r="I146" s="30"/>
+      <c r="C146" s="13"/>
+      <c r="I146" s="31"/>
     </row>
     <row r="147" spans="3:9">
-      <c r="C147" s="12"/>
-      <c r="D147" s="17"/>
-      <c r="I147" s="30"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="18"/>
+      <c r="I147" s="31"/>
     </row>
     <row r="148" spans="3:9">
-      <c r="C148" s="12"/>
-      <c r="D148" s="17"/>
-      <c r="I148" s="30"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="18"/>
+      <c r="I148" s="31"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="28"/>
-      <c r="I149" s="30"/>
+      <c r="A149" s="27"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="29"/>
+      <c r="I149" s="31"/>
     </row>
     <row r="150" spans="3:9">
-      <c r="C150" s="12"/>
-      <c r="D150" s="17"/>
-      <c r="I150" s="30"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="18"/>
+      <c r="I150" s="31"/>
     </row>
     <row r="151" spans="3:9">
-      <c r="C151" s="12"/>
-      <c r="D151" s="17"/>
-      <c r="I151" s="30"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="18"/>
+      <c r="I151" s="31"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="26"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="17"/>
+      <c r="A152" s="27"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="18"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="26"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="17"/>
+      <c r="A153" s="27"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="18"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="26"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="17"/>
+      <c r="A154" s="27"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="18"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="26"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="17"/>
+      <c r="A155" s="27"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="26"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="17"/>
+      <c r="A156" s="27"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="18"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="21"/>
-      <c r="B157" s="21"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="17"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="18"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="17"/>
+      <c r="A158" s="22"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="18"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="21"/>
-      <c r="B159" s="21"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="17"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="18"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="17"/>
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="18"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="17"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="17"/>
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="18"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="17"/>
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="18"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="17"/>
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="17"/>
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="17"/>
+      <c r="A166" s="22"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="18"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="17"/>
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="18"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="21"/>
-      <c r="B168" s="21"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="17"/>
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="21"/>
-      <c r="B169" s="21"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="17"/>
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="18"/>
     </row>
     <row r="174" spans="3:4">
-      <c r="C174" s="12"/>
-      <c r="D174" s="17"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="18"/>
     </row>
     <row r="175" spans="4:4">
-      <c r="D175" s="17"/>
+      <c r="D175" s="18"/>
     </row>
     <row r="176" spans="4:4">
-      <c r="D176" s="17"/>
+      <c r="D176" s="18"/>
     </row>
     <row r="177" spans="3:4">
-      <c r="C177" s="12"/>
-      <c r="D177" s="17"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="18"/>
     </row>
     <row r="178" spans="4:4">
-      <c r="D178" s="17"/>
+      <c r="D178" s="18"/>
     </row>
     <row r="179" spans="3:4">
-      <c r="C179" s="12"/>
-      <c r="D179" s="17"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="18"/>
     </row>
     <row r="180" spans="3:4">
-      <c r="C180" s="12"/>
-      <c r="D180" s="17"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="18"/>
     </row>
     <row r="181" spans="3:4">
-      <c r="C181" s="12"/>
-      <c r="D181" s="17"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="18"/>
     </row>
     <row r="182" spans="3:4">
-      <c r="C182" s="12"/>
-      <c r="D182" s="17"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="18"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="21"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="17"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="18"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="21"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="17"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="18"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="21"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="17"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="18"/>
     </row>
     <row r="187" spans="3:4">
-      <c r="C187" s="12"/>
-      <c r="D187" s="17"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="18"/>
     </row>
     <row r="189" spans="3:4">
-      <c r="C189" s="27"/>
-      <c r="D189" s="28"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="29"/>
     </row>
     <row r="190" spans="3:4">
-      <c r="C190" s="27"/>
-      <c r="D190" s="28"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="29"/>
     </row>
     <row r="191" spans="3:4">
-      <c r="C191" s="27"/>
-      <c r="D191" s="28"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="29"/>
     </row>
     <row r="192" spans="3:4">
-      <c r="C192" s="27"/>
-      <c r="D192" s="28"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="29"/>
     </row>
     <row r="193" spans="3:4">
-      <c r="C193" s="27"/>
-      <c r="D193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="29"/>
     </row>
     <row r="194" spans="3:4">
-      <c r="C194" s="12"/>
-      <c r="D194" s="17"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="18"/>
     </row>
     <row r="195" spans="3:4">
-      <c r="C195" s="12"/>
-      <c r="D195" s="17"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="18"/>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="14"/>
+      <c r="D203" s="15"/>
     </row>
     <row r="204" spans="4:8">
-      <c r="D204" s="14"/>
-      <c r="H204" s="31"/>
+      <c r="D204" s="15"/>
+      <c r="H204" s="32"/>
     </row>
     <row r="205" spans="4:8">
-      <c r="D205" s="14"/>
-      <c r="H205" s="31"/>
+      <c r="D205" s="15"/>
+      <c r="H205" s="32"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="17"/>
-      <c r="H206" s="31"/>
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="18"/>
+      <c r="H206" s="32"/>
     </row>
     <row r="207" spans="8:8">
-      <c r="H207" s="31"/>
+      <c r="H207" s="32"/>
     </row>
     <row r="209" spans="4:4">
-      <c r="D209" s="17"/>
+      <c r="D209" s="18"/>
     </row>
     <row r="210" spans="3:4">
-      <c r="C210" s="12"/>
-      <c r="D210" s="17"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="18"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="21"/>
-      <c r="B214" s="21"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="17"/>
+      <c r="A214" s="22"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="18"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="21"/>
-      <c r="B215" s="21"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="17"/>
+      <c r="A215" s="22"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="21"/>
-      <c r="B216" s="21"/>
+      <c r="A216" s="22"/>
+      <c r="B216" s="22"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="21"/>
-      <c r="B217" s="21"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="17"/>
+      <c r="A217" s="22"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="21"/>
-      <c r="B218" s="21"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="17"/>
+      <c r="A218" s="22"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="18"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="12"/>
+      <c r="C224" s="13"/>
     </row>
     <row r="225" spans="3:4">
-      <c r="C225" s="12"/>
-      <c r="D225" s="17"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="18"/>
     </row>
     <row r="226" spans="3:4">
-      <c r="C226" s="12"/>
-      <c r="D226" s="17"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="18"/>
     </row>
     <row r="227" spans="3:4">
-      <c r="C227" s="12"/>
-      <c r="D227" s="17"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="21"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="17"/>
+      <c r="A228" s="22"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="18"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="21"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="17"/>
+      <c r="A234" s="22"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="18"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="21"/>
-      <c r="B235" s="21"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="17"/>
+      <c r="A235" s="22"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C93">

--- a/b帮助.xlsx
+++ b/b帮助.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372"/>
+    <workbookView windowWidth="23040" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="游戏帮助_HelpTip" sheetId="1" r:id="rId1"/>
@@ -58,42 +58,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>玩法说明</t>
-  </si>
-  <si>
-    <t>1.购买
-  每条海洋动物寿命30天，级别从1级到15级，1级动物每条价格为565KH，每增加1级价格提高一倍。
-2.产出
-  动物每天产出KH，1级到15级动物对应的月化收益为10%、11%、13%、15%、18%、21%、24%、28%、32%、36%、40%、45%、50%、55%和60%，本金收益均为KH。
-3.领取
-  产出的KH随时可以领取，连续24小时未领取则停止产出，停止期间不计入动物寿命。
-4.激活密钥
-  实名账户需进行一个激活密钥激活账户，激活密钥可向邀请您进行游戏的好友进行索要。
-5.赠送
-  通过实名认证即送一条1级动物，价值565KH，30天产出565KH+56.5CKH，月化收益10%。
-6.升级
-  两条同等级动物可合成高1级动物，两只旧动物已产KH数量，合成后将自动计入新动物产出。
-7.交易
-  每次交易均向卖家收取USDT作为手续费进入分红池，直推0/1/2/3名有效用户，对应享受的手续费率为50%/35%/30%/25%。
-8.兑换
-  每次交易均向卖家收取USDT作为手续费进入分红池，直推0/1/2/3名有效用户，对应享受的手续费率为50%/35%/30%/25%。
-9.分红
-  交易手续费的80%自动注入分红池，每天分红池中10%的USDT用于分红，注入KAD可以享受每天分红，注入1周/1月/2月/3月/6月/12月，对应享受的分红权重为0.1/1/2/3/6/12，注入最少1个KAD起，注入到期后会自动释放。
-10.推广
-  有效用户为至少获得过1条动物的用户
-直推规模达到0/1/2/3/4/5名有效用户，对应享受直推用户每次领币数量0%/1%/2%/3%/4%/5%的提成。
-团队奖励是算上我伞下所有人员团队规模达到（人）10/100/1000/1W/10W（人）、直推人数达到1/10/100/1000/1W可拿伞下非直用户收益的1/2/3/4/5。设有级差。
-11.通行证
-  KAD总量恒定1亿枚，是勇士系列整个游戏生态的通证，注入KAD可以享受勇士旗下所有游戏的每日分红，KAD和游戏通证的初始兑换比例为1:1，每兑换出100万KAD，兑换1个KAD所需的游戏通证数量自动增加1个，KAD将择机开放充提并上线交易所开启自由交易。</t>
+    <t>CN_401</t>
+  </si>
+  <si>
+    <t>CN_413</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>实名认证说明</t>
-  </si>
-  <si>
-    <t>通过实名认证即送一条价值565KH，实名前需使用激活密钥激活。</t>
+    <t>CN_402</t>
+  </si>
+  <si>
+    <t>CN_414</t>
   </si>
   <si>
     <t>这个是加个系统的帮助说明</t>
@@ -102,12 +79,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>注入说明</t>
-  </si>
-  <si>
-    <t>1、注入KAD可以享受每天分红。
-2、注入1周/1月/2月/3月/6月/12月，对应享受的分红权重为0.1/1/2/3/6/12。
-3、注入最少1个KAD起，注入到期会自动释放。</t>
+    <t>CN_403</t>
+  </si>
+  <si>
+    <t>CN_415</t>
   </si>
   <si>
     <t>分红系统帮助说明</t>
@@ -116,154 +91,85 @@
     <t>4</t>
   </si>
   <si>
-    <t>兑换说明</t>
-  </si>
-  <si>
-    <t>1、KAD总量恒定1亿枚，整个游戏生态的通用通证。
-2、KAD和KH的初始兑换比例为1:1，每兑换出100万KAD，兑换1个KAD所需的KH数量自动增加1个。
-3、KAD既能享受海洋星球的每日分红，也能享受勇士未来旗下所有游戏的每日分红。
-4、KAD持有者可以无偿获得勇士旗下所有游戏通证的创世空投。
-5、KAD将在勇士第3款游戏上线前开放充提，并择日上线交易所开启自由交易。</t>
+    <t>CN_404</t>
+  </si>
+  <si>
+    <t>CN_416</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>分红说明</t>
-  </si>
-  <si>
-    <t>每天分红池中10%的USDT用于分红，注入KAD可以享受每天分红，每天根据个人注入占比进行分红</t>
+    <t>CN_405</t>
+  </si>
+  <si>
+    <t>CN_417</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>推广说明</t>
-  </si>
-  <si>
-    <t>实名前需要使用激活秘钥进行激活。
-有效用户为至少获得过1条动物的用户
-直推规模达到0/1/2/3/4/5名有效用户，对应享受直推用户每次领币数量0%/1%/2%/3%/4%/5%的提成。
-团队奖励是算上我伞下所有人员团队规模达到（人）10/100/1000/1W/10W（人）、直推人数达到1/10/100/1000/1W可拿伞下非直用户收益的1/2/3/4/5。设有级差。</t>
+    <t>CN_406</t>
+  </si>
+  <si>
+    <t>CN_418</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>提现说明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  提币地址必须为0x开头的ERC20地址，否则将无法到账.提现门槛为30USDT，每次提现收取5USDT手续费，提现后12次网络确认后到账</t>
+    <t>CN_407</t>
+  </si>
+  <si>
+    <t>CN_419</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>充值说明</t>
-  </si>
-  <si>
-    <t>1、请勿向上述地址充值非ERC20-USDT资产，否者资产将不可找回。
-2、您的充值地址可能有所改变，请以本页面最新地址为主，如有改变我们将尽快通知到您。
-3、请务必确认电脑及浏览器安全，以防信息被篡改。</t>
+    <t>CN_408</t>
+  </si>
+  <si>
+    <t>CN_420</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>激活码</t>
-  </si>
-  <si>
-    <t>实名账户需进行一个激活密钥激活账户，激活密钥可向邀请您进行游戏的好友进行索要。</t>
+    <t>CN_409</t>
+  </si>
+  <si>
+    <t>CN_421</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>一．玩法模式
-深海部落每轮投资300USDT，可获得330USDT。5天一轮静态玩家净赚30USDT。动态玩家可以一轮秒出局，一轮需要5个加速积分，200个金币。
-1.注册实名
-用户注册后使用激活码进行账户激活、实名认证后自动获得一个领养名额。
-2.领养海豚
-花费200 USDT，即可排队从深海部落领养一只孕海豚，领取成功后等待24小时即可生产出2只小海豚。
-3.喂养成长
-花费50USDT/一只进行孵化，喂养24小时后即可待受孕。
-4.海豚受孕
-花费100金币/一只，即可将大海豚送往受孕中，等待24小时完成受孕。
-5.挂卖海豚
-海豚受孕完成后，会自动挂售，挂售排队48小时后自动被他人领养，领养后平台收取17.5%的领养手续费，两条共计获得330USDT收益。
-6.签到金币
-普通用户：普通用户未持有海豚用户，每小时可累计1金币，每8小时可进行一次领取。
-领养用户：持有海豚用户每小时可累计获得2金币，每8小时可进行一次领取。
-二．推广模式
-用户每领养一只动物，团队/直推活跃度加1。
-1.直推收益
-直推下级每增加一个活跃度用户将自动获得100金币，2个加速积分。
-2.小区收益
-小区活跃度每增加一个，自动获得一个加速积分、一个领养名额。
-三．道具体系
-1.金币：消耗金币可受孕海豚，也可以使用100金币（进行置换一个领养名额。
-2.加速积分：加速积分可进行等待时间加速，一个加速积分可缩短24小时。
-3.领养名额：领养名额作用为领养海豚。没有领养名额时不能进行领养海豚。</t>
+    <t>CN_422</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>领养海豚</t>
-  </si>
-  <si>
-    <t>花费200 养龙赚钱
-每轮投入300∪SDT,获得330USDT,净赚30USDT.
-用户注册后自动获得1个领养名额
-每花费100个金币可获得1个领养名额
-领养花费200 USDT,即可从龙岛领养一条孕龙 24小时后就会产两个龙蛋
-孵化花费50 USDT开始孵化 24小时后即可把龙蛋孵化成金龙
-受孕花费100金币,即可把金龙寄养到龙岛 24小时后即可完成受孕
-金龙怀孕后会自动岀现在领养区,成功被领养后收取 17.5%的手续费,两条孕龙合计获得330 USDT
-免费挖矿
-普通用户签到后每小时可挖1个金币
-已领孕龙签到后每小时可挖2个金币
-每次签到都会持续产币24小时，但8小时后就能进行下次签到。
-推广收益
-用户每领养1条孕龙,团队活跃度增加1
-1直推活跃度每增加1,自动获得100金币和2个加速积分
-2小区活跃度每增加1,自动获得1个领养名额和1个加速积分
-加速积分可以用于缩减产蛋、孵化和怀孕的时间,每个加速积分可以缩减24小时</t>
+    <t>CN_410</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>繁衍</t>
-  </si>
-  <si>
-    <t>养龙赚钱
-每轮投入300∪SDT,获得330USDT,净赚30USDT.
-用户注册后自动获得1个领养名额
-每花费100个金币可获得1个领养名额
-领养花费200 USDT,即可从龙岛领养一条孕龙 24小时后就会产两个龙蛋
-孵化花费50 USDT开始孵化 24小时后即可把龙蛋孵化成金龙
-受孕花费100金币,即可把金龙寄养到龙岛 24小时后即可完成受孕
-金龙怀孕后会自动岀现在领养区,成功被领养后收取 17.5%的手续费,两条孕龙合计获得330 USDT
-免费挖矿
-普通用户签到后每小时可挖1个金币
-已领孕龙签到后每小时可挖2个金币
-每次签到都会持续产币24小时，但8小时后就能进行下次签到。
-推广收益
-用户每领养1条孕龙,团队活跃度增加1
-1直推活跃度每增加1,自动获得100金币和2个加速积分
-2小区活跃度每增加1,自动获得1个领养名额和1个加速积分
-加速积分可以用于缩减产蛋、孵化和怀孕的时间,每个加速积分可以缩减24小时</t>
+    <t>CN_411</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>动态收益
-用户每领养1条海豚,团队活跃度增加1。
-1，直推活跃度每增加1,自动获得100金币和2个加速积分。
-2，小区活跃度每增加1,自动获得1个领养名额和1个加速积分
-加速积分可以用于缩短孵化和怀孕的时间,每个加速积分可以缩减24小时。</t>
+    <t>CN_412</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CN_423</t>
   </si>
 </sst>
 </file>
@@ -271,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -324,6 +230,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -333,29 +283,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -371,15 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +314,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -402,62 +360,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -488,25 +394,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,157 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +585,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -699,8 +644,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -721,27 +668,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -755,30 +685,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -787,10 +693,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,133 +705,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -969,13 +875,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -1384,8 +1290,8 @@
   <sheetPr/>
   <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1452,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="403.2" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,7 +1397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="72" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1509,18 +1415,18 @@
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="72" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1531,18 +1437,18 @@
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1553,66 +1459,68 @@
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="403.2" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" ht="259.2" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" ht="259.2" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" ht="72" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="13"/>
-    </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="15"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="13"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="16"/>
@@ -1621,18 +1529,18 @@
       <c r="D42" s="17"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="13"/>
+      <c r="C51" s="15"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="13"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="13"/>
+      <c r="C56" s="15"/>
     </row>
     <row r="58" customFormat="1" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="4:4">
@@ -1646,7 +1554,7 @@
       <c r="D63" s="20"/>
     </row>
     <row r="68" spans="3:4">
-      <c r="C68" s="13"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="18"/>
     </row>
     <row r="71" spans="4:4">
@@ -1659,20 +1567,20 @@
       <c r="D73" s="18"/>
     </row>
     <row r="75" spans="3:3">
-      <c r="C75" s="13"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" s="21"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="13"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="13"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:2">
@@ -1680,13 +1588,13 @@
       <c r="B88" s="22"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="13"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:2">
@@ -1724,21 +1632,21 @@
     <row r="100" spans="1:3">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="15"/>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="13"/>
+      <c r="C101" s="15"/>
     </row>
     <row r="103" spans="3:4">
-      <c r="C103" s="13"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="18"/>
     </row>
     <row r="107" spans="3:4">
-      <c r="C107" s="13"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="18"/>
     </row>
     <row r="111" spans="3:4">
-      <c r="C111" s="13"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4">
@@ -1750,93 +1658,93 @@
     <row r="113" spans="1:4">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
-      <c r="C116" s="13"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="18"/>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="13"/>
+      <c r="C117" s="15"/>
     </row>
     <row r="120" spans="3:4">
-      <c r="C120" s="13"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="18"/>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="13"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="18"/>
     </row>
     <row r="122" spans="3:4">
-      <c r="C122" s="13"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="18"/>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="13"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="18"/>
     </row>
     <row r="124" spans="3:4">
-      <c r="C124" s="13"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="18"/>
     </row>
     <row r="125" spans="3:4">
-      <c r="C125" s="13"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="18"/>
     </row>
     <row r="126" spans="3:4">
-      <c r="C126" s="13"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="18"/>
     </row>
     <row r="129" spans="3:3">
-      <c r="C129" s="13"/>
+      <c r="C129" s="15"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="15"/>
       <c r="D130" s="18"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="18"/>
     </row>
     <row r="132" spans="3:3">
-      <c r="C132" s="13"/>
+      <c r="C132" s="15"/>
     </row>
     <row r="133" spans="3:3">
-      <c r="C133" s="13"/>
+      <c r="C133" s="15"/>
     </row>
     <row r="135" spans="3:3">
-      <c r="C135" s="13"/>
+      <c r="C135" s="15"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="15"/>
       <c r="D136" s="18"/>
     </row>
     <row r="137" ht="15" spans="3:3">
       <c r="C137" s="26"/>
     </row>
     <row r="142" spans="3:3">
-      <c r="C142" s="13"/>
+      <c r="C142" s="15"/>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" s="18"/>
@@ -1844,26 +1752,26 @@
     <row r="144" spans="1:4">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
-      <c r="C144" s="13"/>
+      <c r="C144" s="15"/>
       <c r="D144" s="18"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
-      <c r="C145" s="13"/>
+      <c r="C145" s="15"/>
       <c r="D145" s="18"/>
     </row>
     <row r="146" spans="3:9">
-      <c r="C146" s="13"/>
+      <c r="C146" s="15"/>
       <c r="I146" s="31"/>
     </row>
     <row r="147" spans="3:9">
-      <c r="C147" s="13"/>
+      <c r="C147" s="15"/>
       <c r="D147" s="18"/>
       <c r="I147" s="31"/>
     </row>
     <row r="148" spans="3:9">
-      <c r="C148" s="13"/>
+      <c r="C148" s="15"/>
       <c r="D148" s="18"/>
       <c r="I148" s="31"/>
     </row>
@@ -1875,125 +1783,125 @@
       <c r="I149" s="31"/>
     </row>
     <row r="150" spans="3:9">
-      <c r="C150" s="13"/>
+      <c r="C150" s="15"/>
       <c r="D150" s="18"/>
       <c r="I150" s="31"/>
     </row>
     <row r="151" spans="3:9">
-      <c r="C151" s="13"/>
+      <c r="C151" s="15"/>
       <c r="D151" s="18"/>
       <c r="I151" s="31"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="27"/>
       <c r="B152" s="30"/>
-      <c r="C152" s="13"/>
+      <c r="C152" s="15"/>
       <c r="D152" s="18"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="27"/>
       <c r="B153" s="30"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="15"/>
       <c r="D153" s="18"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="27"/>
       <c r="B154" s="30"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="15"/>
       <c r="D154" s="18"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="27"/>
       <c r="B155" s="30"/>
-      <c r="C155" s="13"/>
+      <c r="C155" s="15"/>
       <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="27"/>
       <c r="B156" s="30"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="15"/>
       <c r="D156" s="18"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
-      <c r="C157" s="13"/>
+      <c r="C157" s="15"/>
       <c r="D157" s="18"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
-      <c r="C158" s="13"/>
+      <c r="C158" s="15"/>
       <c r="D158" s="18"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
-      <c r="C159" s="13"/>
+      <c r="C159" s="15"/>
       <c r="D159" s="18"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="15"/>
       <c r="D160" s="18"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
-      <c r="C161" s="13"/>
+      <c r="C161" s="15"/>
       <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
-      <c r="C162" s="13"/>
+      <c r="C162" s="15"/>
       <c r="D162" s="18"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="15"/>
       <c r="D163" s="18"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
-      <c r="C164" s="13"/>
+      <c r="C164" s="15"/>
       <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
-      <c r="C165" s="13"/>
+      <c r="C165" s="15"/>
       <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="15"/>
       <c r="D166" s="18"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
-      <c r="C167" s="13"/>
+      <c r="C167" s="15"/>
       <c r="D167" s="18"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="15"/>
       <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
-      <c r="C169" s="13"/>
+      <c r="C169" s="15"/>
       <c r="D169" s="18"/>
     </row>
     <row r="174" spans="3:4">
-      <c r="C174" s="13"/>
+      <c r="C174" s="15"/>
       <c r="D174" s="18"/>
     </row>
     <row r="175" spans="4:4">
@@ -2003,48 +1911,48 @@
       <c r="D176" s="18"/>
     </row>
     <row r="177" spans="3:4">
-      <c r="C177" s="13"/>
+      <c r="C177" s="15"/>
       <c r="D177" s="18"/>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" s="18"/>
     </row>
     <row r="179" spans="3:4">
-      <c r="C179" s="13"/>
+      <c r="C179" s="15"/>
       <c r="D179" s="18"/>
     </row>
     <row r="180" spans="3:4">
-      <c r="C180" s="13"/>
+      <c r="C180" s="15"/>
       <c r="D180" s="18"/>
     </row>
     <row r="181" spans="3:4">
-      <c r="C181" s="13"/>
+      <c r="C181" s="15"/>
       <c r="D181" s="18"/>
     </row>
     <row r="182" spans="3:4">
-      <c r="C182" s="13"/>
+      <c r="C182" s="15"/>
       <c r="D182" s="18"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
-      <c r="C184" s="13"/>
+      <c r="C184" s="15"/>
       <c r="D184" s="18"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
-      <c r="C185" s="13"/>
+      <c r="C185" s="15"/>
       <c r="D185" s="18"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
-      <c r="C186" s="13"/>
+      <c r="C186" s="15"/>
       <c r="D186" s="18"/>
     </row>
     <row r="187" spans="3:4">
-      <c r="C187" s="13"/>
+      <c r="C187" s="15"/>
       <c r="D187" s="18"/>
     </row>
     <row r="189" spans="3:4">
@@ -2068,28 +1976,28 @@
       <c r="D193" s="29"/>
     </row>
     <row r="194" spans="3:4">
-      <c r="C194" s="13"/>
+      <c r="C194" s="15"/>
       <c r="D194" s="18"/>
     </row>
     <row r="195" spans="3:4">
-      <c r="C195" s="13"/>
+      <c r="C195" s="15"/>
       <c r="D195" s="18"/>
     </row>
     <row r="203" spans="4:4">
-      <c r="D203" s="15"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204" spans="4:8">
-      <c r="D204" s="15"/>
+      <c r="D204" s="14"/>
       <c r="H204" s="32"/>
     </row>
     <row r="205" spans="4:8">
-      <c r="D205" s="15"/>
+      <c r="D205" s="14"/>
       <c r="H205" s="32"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="22"/>
       <c r="B206" s="22"/>
-      <c r="C206" s="13"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="18"/>
       <c r="H206" s="32"/>
     </row>
@@ -2100,19 +2008,19 @@
       <c r="D209" s="18"/>
     </row>
     <row r="210" spans="3:4">
-      <c r="C210" s="13"/>
+      <c r="C210" s="15"/>
       <c r="D210" s="18"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="22"/>
       <c r="B214" s="22"/>
-      <c r="C214" s="13"/>
+      <c r="C214" s="15"/>
       <c r="D214" s="18"/>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="22"/>
       <c r="B215" s="22"/>
-      <c r="C215" s="13"/>
+      <c r="C215" s="15"/>
       <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:2">
@@ -2122,46 +2030,46 @@
     <row r="217" spans="1:4">
       <c r="A217" s="22"/>
       <c r="B217" s="22"/>
-      <c r="C217" s="13"/>
+      <c r="C217" s="15"/>
       <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="22"/>
       <c r="B218" s="22"/>
-      <c r="C218" s="13"/>
+      <c r="C218" s="15"/>
       <c r="D218" s="18"/>
     </row>
     <row r="224" spans="3:3">
-      <c r="C224" s="13"/>
+      <c r="C224" s="15"/>
     </row>
     <row r="225" spans="3:4">
-      <c r="C225" s="13"/>
+      <c r="C225" s="15"/>
       <c r="D225" s="18"/>
     </row>
     <row r="226" spans="3:4">
-      <c r="C226" s="13"/>
+      <c r="C226" s="15"/>
       <c r="D226" s="18"/>
     </row>
     <row r="227" spans="3:4">
-      <c r="C227" s="13"/>
+      <c r="C227" s="15"/>
       <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="22"/>
       <c r="B228" s="22"/>
-      <c r="C228" s="13"/>
+      <c r="C228" s="15"/>
       <c r="D228" s="18"/>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="22"/>
       <c r="B234" s="22"/>
-      <c r="C234" s="13"/>
+      <c r="C234" s="15"/>
       <c r="D234" s="18"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="22"/>
       <c r="B235" s="22"/>
-      <c r="C235" s="13"/>
+      <c r="C235" s="15"/>
       <c r="D235" s="18"/>
     </row>
   </sheetData>

--- a/b帮助.xlsx
+++ b/b帮助.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>CN_423</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CN_551</t>
+  </si>
+  <si>
+    <t>CN_552</t>
   </si>
 </sst>
 </file>
@@ -177,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -230,6 +239,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -238,6 +270,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -246,23 +294,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,55 +340,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,34 +362,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,12 +403,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,18 +559,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -448,42 +571,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,85 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,45 +594,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -644,10 +614,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -668,10 +636,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -685,6 +670,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -693,10 +702,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,133 +714,133 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,7 +1300,7 @@
   <dimension ref="A1:I235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1512,6 +1521,17 @@
         <v>51</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="21" spans="3:4">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
